--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,27 +657,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TYRESO/artfynd/A 60923-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TYRESO/artfynd/A 60923-2021.xlsx", "A 60923-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TYRESO/kartor/A 60923-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TYRESO/kartor/A 60923-2021.png", "A 60923-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TYRESO/klagomål/A 60923-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TYRESO/klagomål/A 60923-2021.docx", "A 60923-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TYRESO/klagomålsmail/A 60923-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TYRESO/klagomålsmail/A 60923-2021.docx", "A 60923-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TYRESO/tillsyn/A 60923-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TYRESO/tillsyn/A 60923-2021.docx", "A 60923-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TYRESO/tillsynsmail/A 60923-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TYRESO/tillsynsmail/A 60923-2021.docx", "A 60923-2021")</f>
         <v/>
       </c>
     </row>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -572,7 +572,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
